--- a/census_reject_rules.xlsx
+++ b/census_reject_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06848425835767608</v>
+        <v>0.06686140863356053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8978723404255319</v>
+        <v>0.8765957446808511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3021276595744681</v>
+        <v>0.2808510638297873</v>
       </c>
       <c r="H2" t="n">
-        <v>2.933473719367564e-05</v>
+        <v>0.0002070675512810065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RULE9</t>
+          <t>RULE4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'education': 'Professor/Doctorate'}</t>
+          <t>{'capital loss': '&gt;500'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03894839337877313</v>
+        <v>0.03245699448231094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9345794392523364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1550969355847405</v>
+        <v>0.2571600844136268</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00119857678100569</v>
+        <v>0.001115158618897023</v>
       </c>
     </row>
     <row r="4">
@@ -565,16 +565,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1626095423563778</v>
+        <v>0.1622849724115547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9243542435424354</v>
+        <v>0.922509225092251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3275288467170386</v>
+        <v>0.3352076377906636</v>
       </c>
       <c r="H4" t="n">
-        <v>5.103268193028404e-22</v>
+        <v>2.34808092876447e-22</v>
       </c>
     </row>
     <row r="5">
@@ -599,22 +599,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2891918208373905</v>
+        <v>0.2862706913339825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7327302631578947</v>
+        <v>0.725328947368421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.380995247385024</v>
+        <v>0.3799030798605346</v>
       </c>
       <c r="H5" t="n">
-        <v>2.590672210443513e-25</v>
+        <v>1.16941607111719e-24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RULE13</t>
+          <t>RULE14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.05777345017851347</v>
+        <v>0.05582603050957481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9726775956284153</v>
+        <v>0.9398907103825137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2539275956284153</v>
+        <v>0.1586407103825137</v>
       </c>
       <c r="H6" t="n">
-        <v>3.40490966194926e-06</v>
+        <v>0.007450836308881741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RULE14</t>
+          <t>RULE15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03018500486854917</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.182370820668693</v>
+        <v>0.310790273556231</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003318120861371048</v>
+        <v>6.790383438622403e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RULE15</t>
+          <t>RULE16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.08471275559883155</v>
+        <v>0.08211619604024667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.87</v>
+        <v>0.8433333333333334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8042105263157895</v>
+        <v>0.8082456140350878</v>
       </c>
       <c r="H8" t="n">
-        <v>1.32765460729107e-09</v>
+        <v>6.737972033320146e-06</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'education': 'Professor/Doctorate'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.148328464784161</v>
+        <v>0.03083414475819539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9661733615221987</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2845254214472923</v>
+        <v>0.125</v>
       </c>
       <c r="H9" t="n">
-        <v>3.214453426081439e-21</v>
+        <v>0.0008738497779134817</v>
       </c>
     </row>
     <row r="10">
@@ -760,7 +760,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'age': '26-60'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2609542356377799</v>
+        <v>0.1486530347289841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7613636363636364</v>
+        <v>0.9682875264270613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3679812834224599</v>
+        <v>0.2978755414083347</v>
       </c>
       <c r="H10" t="n">
-        <v>2.672208087838918e-23</v>
+        <v>1.628414769458155e-22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RULE27</t>
+          <t>RULE23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'education': 'Professor/Doctorate'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.009087958455047063</v>
+        <v>0.2590068159688413</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.7556818181818182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3678141711229947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008041064960803503</v>
+        <v>7.219388902661109e-23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RULE29</t>
+          <t>RULE30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.02693930542031808</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9120879120879121</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6217653314427507</v>
+        <v>0.6423254165189649</v>
       </c>
       <c r="H12" t="n">
-        <v>3.883206337891457e-05</v>
+        <v>0.0003551973660501382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RULE44</t>
+          <t>RULE40</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'education': 'Professor/Doctorate', 'capital gain': '&lt;=500'}</t>
+          <t>{'capital loss': '&gt;500', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0275884453099643</v>
+        <v>0.03245699448231094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9659090909090909</v>
+        <v>0.9345794392523364</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1659090909090909</v>
+        <v>0.2571600844136268</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005335841740968914</v>
+        <v>0.001115158618897023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RULE45</t>
+          <t>RULE46</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1324245374878286</v>
+        <v>0.1320999675430055</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9086859688195991</v>
+        <v>0.9064587973273942</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3320193021529324</v>
+        <v>0.3297921306607275</v>
       </c>
       <c r="H14" t="n">
-        <v>1.733639725912459e-18</v>
+        <v>3.529092106692274e-18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RULE48</t>
+          <t>RULE49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.06848425835767608</v>
+        <v>0.06686140863356053</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8978723404255319</v>
+        <v>0.8765957446808511</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3021276595744681</v>
+        <v>0.2808510638297873</v>
       </c>
       <c r="H15" t="n">
-        <v>2.933473719367564e-05</v>
+        <v>0.0002070675512810065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RULE50</t>
+          <t>RULE52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'University Degree', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.03018500486854917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8125</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.25776855064643e-05</v>
       </c>
     </row>
     <row r="17">
@@ -998,7 +998,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'wage per hour': '&lt;500'}</t>
+          <t>{'wage per hour': '&lt;500', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.06523855890944498</v>
+        <v>0.06426484907497566</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8973214285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.292670265780731</v>
+        <v>0.3025332225913621</v>
       </c>
       <c r="H17" t="n">
-        <v>8.327841052183947e-05</v>
+        <v>0.0001220429966388041</v>
       </c>
     </row>
     <row r="18">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'weeks worked in year': '=52'}</t>
+          <t>{'weeks worked in year': '=52', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.06166828951639079</v>
+        <v>0.05972086984745213</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9895833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2588141025641026</v>
+        <v>0.2660256410256411</v>
       </c>
       <c r="H18" t="n">
-        <v>6.420448399554954e-08</v>
+        <v>3.618078638868991e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'education': 'Professor/Doctorate'}</t>
+          <t>{'education': 'University Degree', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.03537812398571892</v>
+        <v>0.1496267445634534</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9732142857142857</v>
+        <v>0.9201596806387226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1624034749034748</v>
+        <v>0.3473119985195172</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00164367487691522</v>
+        <v>1.223936158995792e-21</v>
       </c>
     </row>
     <row r="20">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital loss': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '=52', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1493021746186303</v>
+        <v>0.2586822460240182</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9181636726546906</v>
+        <v>0.7059344552701505</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3386934739791939</v>
+        <v>0.3731475700242489</v>
       </c>
       <c r="H20" t="n">
-        <v>6.88837611967474e-21</v>
+        <v>7.885571411703734e-22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RULE62</t>
+          <t>RULE67</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'capital loss': '&gt;500', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,22 +1143,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2619279454722493</v>
+        <v>0.03148328464784161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7147918511957484</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3820049659498467</v>
+        <v>0.2010068320747933</v>
       </c>
       <c r="H21" t="n">
-        <v>6.21712336162581e-23</v>
+        <v>0.006365516406864133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RULE65</t>
+          <t>RULE68</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'capital loss': '&gt;500', 'education': 'High School Degree'}</t>
+          <t>{'capital loss': '&gt;500', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.006815968841285297</v>
+        <v>0.0275884453099643</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.962919092691696e-05</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'education': 'College or Associate'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.0902304446608244</v>
+        <v>0.08828302499188576</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9055374592833876</v>
+        <v>0.8859934853420195</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8166485703944987</v>
+        <v>0.8471045964531306</v>
       </c>
       <c r="H23" t="n">
-        <v>8.351798112469306e-11</v>
+        <v>7.688965200733276e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RULE87</t>
+          <t>RULE88</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1245,22 +1245,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1561181434599156</v>
+        <v>0.1554690035702694</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9267822736030829</v>
+        <v>0.9229287090558767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3034489402697496</v>
+        <v>0.3095953757225434</v>
       </c>
       <c r="H24" t="n">
-        <v>1.083231180269841e-19</v>
+        <v>9.874730533368543e-20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RULE88</t>
+          <t>RULE89</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.01460564751703992</v>
+        <v>0.01493021746186303</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="G25" t="n">
         <v>0.7843137254901961</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008740872112984741</v>
+        <v>0.0003008509472946698</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RULE89</t>
+          <t>RULE90</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1328,7 +1328,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RULE91</t>
+          <t>RULE92</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'weeks worked in year': '=52'}</t>
+          <t>{'weeks worked in year': '=52', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2742616033755274</v>
+        <v>0.2739370334307043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7471264367816092</v>
+        <v>0.7462422634836428</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3650841832604824</v>
+        <v>0.3694817001033611</v>
       </c>
       <c r="H27" t="n">
-        <v>3.786530464168525e-23</v>
+        <v>2.285682458035574e-23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RULE93</t>
+          <t>RULE95</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03018500486854917</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="G28" t="n">
-        <v>0.182370820668693</v>
+        <v>0.310790273556231</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003318120861371048</v>
+        <v>6.790383438622403e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RULE94</t>
+          <t>RULE101</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'education': 'College or Associate', 'capital gain': '&lt;=500'}</t>
+          <t>{'age': '26-60', 'education': 'Professor/Doctorate', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1415,22 +1415,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.0723790976955534</v>
+        <v>0.02239532619279455</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8544061302681992</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8182070352455748</v>
+        <v>0.1379310344827587</v>
       </c>
       <c r="H29" t="n">
-        <v>5.32534278291786e-06</v>
+        <v>0.002824305025756904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RULE100</t>
+          <t>RULE102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1223628691983122</v>
+        <v>0.1226874391431353</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9592875318066157</v>
+        <v>0.9618320610687023</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2939332010979543</v>
+        <v>0.3004147382340566</v>
       </c>
       <c r="H30" t="n">
-        <v>2.169794413805956e-18</v>
+        <v>4.403927472362932e-19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RULE101</t>
+          <t>RULE103</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2064264849074976</v>
+        <v>0.204803635183382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7170236753100339</v>
+        <v>0.7113866967305524</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3384385892679688</v>
+        <v>0.3385377483557914</v>
       </c>
       <c r="H31" t="n">
-        <v>2.668204099771791e-17</v>
+        <v>4.93402628878078e-17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RULE103</t>
+          <t>RULE106</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'capital loss': '&lt;=500', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'capital gain': '&gt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1517,22 +1517,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.05777345017851347</v>
+        <v>0.05582603050957481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9726775956284153</v>
+        <v>0.9398907103825137</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2539275956284153</v>
+        <v>0.1586407103825137</v>
       </c>
       <c r="H32" t="n">
-        <v>3.40490966194926e-06</v>
+        <v>0.007450836308881741</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RULE105</t>
+          <t>RULE110</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'age': '26-60', 'education': 'High School Degree'}</t>
+          <t>{'education': 'University Degree', 'age': '26-60', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.01071080817916261</v>
+        <v>0.02596559558584875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.0009736589956200696</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RULE108</t>
+          <t>RULE111</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'wage per hour': '&lt;500', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'wage per hour': '&lt;500', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.05550146056475171</v>
+        <v>0.05387861084063616</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9715909090909091</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2382575757575758</v>
+        <v>0.1765151515151515</v>
       </c>
       <c r="H34" t="n">
-        <v>1.51787666751538e-05</v>
+        <v>0.003936064905439235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RULE109</t>
+          <t>RULE112</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'age': '26-60', 'weeks worked in year': '=52'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.05452775073028238</v>
+        <v>0.05420318078545926</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9940828402366864</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2321780783319245</v>
+        <v>0.226260918568611</v>
       </c>
       <c r="H35" t="n">
-        <v>3.884508172101918e-07</v>
+        <v>4.439517268508271e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RULE110</t>
+          <t>RULE113</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'age': '26-60', 'education': 'College or Associate', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07465108730931516</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8586956521739131</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8268774703557312</v>
+        <v>0.8015151515151515</v>
       </c>
       <c r="H36" t="n">
-        <v>1.612244637863662e-05</v>
+        <v>2.886611590960435e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RULE116</t>
+          <t>RULE118</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital loss': '&lt;=500', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'education': 'Professor/Doctorate', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1359948068808828</v>
+        <v>0.02823758519961051</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9632183908045977</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2965517241379311</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>2.813962377904242e-20</v>
+        <v>0.001027318670715687</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RULE117</t>
+          <t>RULE119</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': '26-60', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'age': '26-60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2353132099967543</v>
+        <v>0.1363193768257059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.742827868852459</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3685476385261634</v>
+        <v>0.3066937119675457</v>
       </c>
       <c r="H38" t="n">
-        <v>6.174377251282501e-21</v>
+        <v>2.914128065189607e-21</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'capital loss': '&gt;500', 'age': '26-60', 'education': 'High School Degree'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.006815968841285297</v>
+        <v>0.2330412203829925</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0.735655737704918</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.3613755073786224</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.536361077647573e-20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RULE122</t>
+          <t>RULE126</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'capital loss': '&gt;500', 'wage per hour': '&lt;500', 'age': '26-60'}</t>
+          <t>{'capital loss': '&gt;500', 'age': '26-60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.02856215514443363</v>
+        <v>0.02921129503407984</v>
       </c>
       <c r="F40" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="G40" t="n">
-        <v>0.167032967032967</v>
+        <v>0.2690109890109891</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007790485251791171</v>
+        <v>3.92831368380579e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RULE123</t>
+          <t>RULE127</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.02596559558584875</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1614130434782609</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003288740136309862</v>
+        <v>1.007186668265018e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RULE124</t>
+          <t>RULE128</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'age': '26-60', 'wage per hour': '&lt;500', 'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.07789678675754626</v>
+        <v>0.07724764686790003</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8169199221830801</v>
+        <v>0.8335173598331493</v>
       </c>
       <c r="H42" t="n">
-        <v>9.209701013712815e-09</v>
+        <v>3.504668986198245e-06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RULE125</t>
+          <t>RULE129</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52', 'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.08373904576436222</v>
+        <v>0.08179162609542356</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="G43" t="n">
-        <v>0.910958904109589</v>
+        <v>0.9356482956355527</v>
       </c>
       <c r="H43" t="n">
-        <v>9.121788329277978e-12</v>
+        <v>2.418130929599535e-06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RULE139</t>
+          <t>RULE141</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'wage per hour': '&lt;500', 'education': 'Professor/Doctorate'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1925,22 +1925,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1421616358325219</v>
+        <v>0.03018500486854917</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9668874172185431</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2598561672185431</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1.012495597519083e-18</v>
+        <v>0.0030226738607577</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RULE140</t>
+          <t>RULE143</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'age': '26-60', 'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'University Degree', 'age': '26-60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.1421616358325219</v>
       </c>
       <c r="F45" t="n">
-        <v>0.975</v>
+        <v>0.9668874172185431</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8819767441860464</v>
+        <v>0.2715749172185431</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0007737716230427147</v>
+        <v>1.426363539412941e-19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RULE141</t>
+          <t>RULE144</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'age': '26-60', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'age': '26-60'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1356702369360597</v>
+        <v>0.01298279779292437</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04891304347826086</v>
+        <v>0.9069767441860466</v>
       </c>
       <c r="H46" t="n">
-        <v>7.582613154584048e-06</v>
+        <v>0.000529508047014919</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RULE142</t>
+          <t>RULE145</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': '26-60', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'age': '26-60', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2027,22 +2027,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.24634858812074</v>
+        <v>0.1356702369360597</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7729124236252546</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.345213849287169</v>
+        <v>0.04891304347826086</v>
       </c>
       <c r="H47" t="n">
-        <v>1.037292291238469e-20</v>
+        <v>7.582613154584048e-06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RULE148</t>
+          <t>RULE146</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.02109704641350211</v>
+        <v>0.2466731580655631</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8904109589041096</v>
+        <v>0.7739307535641547</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6761252446183953</v>
+        <v>0.35030549898167</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0005246159044061076</v>
+        <v>4.054099942825481e-21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RULE156</t>
+          <t>RULE151</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital loss': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2095,16 +2095,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02174618630314833</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6403100775193797</v>
+        <v>0.7392367906066536</v>
       </c>
       <c r="H49" t="n">
-        <v>8.183565792290652e-05</v>
+        <v>0.0004243043909118447</v>
       </c>
     </row>
     <row r="50">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'age': 'Older than 60', 'education': 'College or Associate'}</t>
+          <t>{'weeks worked in year': '=52', 'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.006166828951639078</v>
+        <v>0.0240181759169101</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="G50" t="n">
-        <v>0.625</v>
+        <v>0.6271317829457363</v>
       </c>
       <c r="H50" t="n">
-        <v>0.009601956456174463</v>
+        <v>0.000550056003032995</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RULE161</t>
+          <t>RULE169</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
+          <t>{'age': 'Older than 60', 'wage per hour': '&lt;500', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.006166828951639078</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.8777777777777778</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.6634920634920635</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.0004814890019599622</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RULE169</t>
+          <t>RULE197</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.02661473547549497</v>
+        <v>0.1194417396949043</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.3409851745576279</v>
       </c>
       <c r="H52" t="n">
-        <v>9.633979410462109e-05</v>
+        <v>2.595817265111609e-17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RULE196</t>
+          <t>RULE203</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'education': 'Professor/Doctorate', 'capital loss': '&lt;=500', 'capital gain': '&lt;=500'}</t>
+          <t>{'capital loss': '&gt;500', 'wage per hour': '&lt;500', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.0240181759169101</v>
+        <v>0.03148328464784161</v>
       </c>
       <c r="F53" t="n">
-        <v>0.961038961038961</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1731601731601732</v>
+        <v>0.2010068320747933</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00824026358956354</v>
+        <v>0.006365516406864133</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RULE197</t>
+          <t>RULE204</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital loss': '&lt;=500', 'capital gain': '&lt;=500'}</t>
+          <t>{'capital loss': '&gt;500', 'weeks worked in year': '=52', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2265,22 +2265,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1191171697500811</v>
+        <v>0.0275884453099643</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8995098039215687</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3420185147229624</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H54" t="n">
-        <v>3.380300565186992e-17</v>
+        <v>6.962919092691696e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RULE202</t>
+          <t>RULE205</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'capital loss': '&gt;500', 'capital gain': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.006815968841285297</v>
+        <v>0.07530022719896137</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.8689138576779026</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.8689138576779026</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RULE206</t>
+          <t>RULE223</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.07724764686790003</v>
+        <v>0.1262577085361896</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8913857677902621</v>
+        <v>0.9067599067599068</v>
       </c>
       <c r="G56" t="n">
-        <v>0.844602142059268</v>
+        <v>0.3018648018648019</v>
       </c>
       <c r="H56" t="n">
-        <v>2.184193979621966e-06</v>
+        <v>7.985575497545821e-16</v>
       </c>
     </row>
     <row r="57">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'capital gain': '&lt;=500'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1269068484258358</v>
+        <v>0.01330736773774749</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9114219114219114</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3065268065268065</v>
+        <v>0.8288043478260869</v>
       </c>
       <c r="H57" t="n">
-        <v>1.957329148093284e-16</v>
+        <v>0.005484281342848188</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RULE226</t>
+          <t>RULE225</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital gain': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '=52', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RULE230</t>
+          <t>RULE227</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'capital loss': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'wage per hour': '&lt;500', 'capital gain': '&lt;=500', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.2158390133073677</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8125</v>
+        <v>0.7029598308668076</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8125</v>
+        <v>0.3396570785732296</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1.943733839484007e-17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RULE233</t>
+          <t>RULE232</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'capital loss': '&lt;=500', 'wage per hour': '&lt;500'}</t>
+          <t>{'education': 'University Degree', 'capital gain': '&gt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2469,22 +2469,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.06523855890944498</v>
+        <v>0.03018500486854917</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8973214285714286</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.292670265780731</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
-        <v>8.327841052183947e-05</v>
+        <v>7.25776855064643e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RULE234</t>
+          <t>RULE233</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'capital loss': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'wage per hour': '&lt;500', 'capital gain': '&gt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2503,22 +2503,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.06166828951639079</v>
+        <v>0.06426484907497566</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9895833333333334</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2588141025641026</v>
+        <v>0.3025332225913621</v>
       </c>
       <c r="H61" t="n">
-        <v>6.420448399554954e-08</v>
+        <v>0.0001220429966388041</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RULE238</t>
+          <t>RULE234</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'wage per hour': '&lt;500', 'education': 'High School Degree'}</t>
+          <t>{'weeks worked in year': '=52', 'capital gain': '&gt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2537,22 +2537,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.01135994806880883</v>
+        <v>0.05972086984745213</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.2660256410256411</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>3.618078638868991e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RULE239</t>
+          <t>RULE236</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2571,22 +2571,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.01135994806880883</v>
+        <v>0.01298279779292437</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.006120464650424774</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RULE244</t>
+          <t>RULE237</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'wage per hour': '&lt;500', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'High School Degree', 'weeks worked in year': '=52', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2605,22 +2605,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.05939629990262902</v>
+        <v>0.009412528399870172</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2500587544065805</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H64" t="n">
-        <v>2.922421092681272e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RULE246</t>
+          <t>RULE240</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'capital loss': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'capital gain': '&gt;500'}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2639,22 +2639,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.08276533592989289</v>
+        <v>0.02921129503407984</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9042553191489362</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8577436912419595</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>1.30491012306688e-06</v>
+        <v>6.115277469809213e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RULE264</t>
+          <t>RULE242</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
+          <t>{'wage per hour': '&lt;500', 'capital gain': '&gt;500', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1431353456669912</v>
+        <v>0.05809802012333658</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9206680584551148</v>
+        <v>0.9675675675675676</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3143962814516305</v>
+        <v>0.2719153936545241</v>
       </c>
       <c r="H66" t="n">
-        <v>1.070652258197332e-18</v>
+        <v>1.669543866817061e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RULE265</t>
+          <t>RULE243</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital loss': '&lt;=500', 'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2707,22 +2707,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.01330736773774749</v>
+        <v>0.08081791626095423</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.8829787234042553</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8111159357359966</v>
+        <v>0.8422810489856507</v>
       </c>
       <c r="H67" t="n">
-        <v>0.006493214585634198</v>
+        <v>9.341048285523919e-06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RULE266</t>
+          <t>RULE262</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital loss': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2741,22 +2741,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1353456669912366</v>
+        <v>0.1431353456669912</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9904988123515439</v>
+        <v>0.9206680584551148</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09156264213877796</v>
+        <v>0.3213649225666131</v>
       </c>
       <c r="H68" t="n">
-        <v>1.384686332614805e-07</v>
+        <v>3.843391046550087e-19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RULE268</t>
+          <t>RULE263</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2479714378448556</v>
+        <v>0.01363193768257059</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7290076335877863</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3640441299381513</v>
+        <v>0.8119843682153712</v>
       </c>
       <c r="H69" t="n">
-        <v>7.145172209300487e-21</v>
+        <v>0.001895025648809141</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RULE272</t>
+          <t>RULE264</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&gt;500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '=52', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.006166828951639078</v>
+        <v>0.1353456669912366</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9904988123515439</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.09156264213877796</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1.384686332614805e-07</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RULE276</t>
+          <t>RULE266</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'wage per hour': '&lt;500', 'education': 'College or Associate'}</t>
+          <t>{'weeks worked in year': '=52', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.08341447581953911</v>
+        <v>0.2473222979552094</v>
       </c>
       <c r="F71" t="n">
-        <v>0.921146953405018</v>
+        <v>0.7270992366412213</v>
       </c>
       <c r="G71" t="n">
-        <v>0.84322487548294</v>
+        <v>0.3639605505098345</v>
       </c>
       <c r="H71" t="n">
-        <v>3.958479741035785e-09</v>
+        <v>9.566917107310256e-21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RULE288</t>
+          <t>RULE270</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'weeks worked in year': '27-51'}</t>
+          <t>{'capital loss': '&gt;500', 'education': 'College or Associate', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.01363193768257059</v>
+        <v>0.007465108730931516</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.92</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8043478260869564</v>
+        <v>0.92</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0006708095542622715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RULE289</t>
+          <t>RULE274</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'weeks worked in year': '=52'}</t>
+          <t>{'capital loss': '&gt;500', 'weeks worked in year': '=52', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2911,124 +2911,124 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1411879259980526</v>
+        <v>0.02661473547549497</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9931506849315068</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04634217429320897</v>
+        <v>0.2379518072289156</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0002598443230852997</v>
+        <v>0.0002972433564300714</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RULE291</t>
+          <t>RULE275</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{'sex': 'Female'}</t>
+          <t>{'sex': 'Male'}</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'income': 'low'}</t>
+          <t>{'income': 'high'}</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3638429081467056</v>
+        <v>0.08341447581953911</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8248712288447387</v>
+        <v>0.921146953405018</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3939769199016493</v>
+        <v>0.882185914443979</v>
       </c>
       <c r="H74" t="n">
-        <v>5.204948651187164e-65</v>
+        <v>1.218147173847813e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RULE292</t>
+          <t>RULE287</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{'sex': 'Female'}</t>
+          <t>{'sex': 'Male'}</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'income': 'low'}</t>
+          <t>{'income': 'high'}</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.08925673482635509</v>
+        <v>0.01363193768257059</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9581881533101045</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3449477351916377</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="H75" t="n">
-        <v>3.070837960913615e-18</v>
+        <v>0.0003309848948122862</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RULE294</t>
+          <t>RULE288</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{'sex': 'Female'}</t>
+          <t>{'sex': 'Male'}</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '=52', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'income': 'low'}</t>
+          <t>{'income': 'high'}</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3576760791950666</v>
+        <v>0.1411879259980526</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8399390243902439</v>
+        <v>0.9931506849315068</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3570876457755836</v>
+        <v>0.04634217429320897</v>
       </c>
       <c r="H76" t="n">
-        <v>5.999528335778208e-55</v>
+        <v>0.0002598443230852997</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RULE295</t>
+          <t>RULE290</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3615709185329439</v>
+        <v>0.3644920480363518</v>
       </c>
       <c r="F77" t="n">
-        <v>0.838855421686747</v>
+        <v>0.8263428991905813</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3837470625536201</v>
+        <v>0.3908028295041702</v>
       </c>
       <c r="H77" t="n">
-        <v>1.108663495912555e-62</v>
+        <v>1.266887121163002e-64</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RULE297</t>
+          <t>RULE291</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'education': 'College or Associate'}</t>
+          <t>{'age': 'Older than 60'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3081,22 +3081,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1002921129503408</v>
+        <v>0.0902304446608244</v>
       </c>
       <c r="F78" t="n">
-        <v>0.944954128440367</v>
+        <v>0.9686411149825784</v>
       </c>
       <c r="G78" t="n">
-        <v>0.617163154568633</v>
+        <v>0.3449477351916377</v>
       </c>
       <c r="H78" t="n">
-        <v>9.975435833523028e-35</v>
+        <v>4.063897949688157e-19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RULE299</t>
+          <t>RULE293</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{'education': 'High School Degree'}</t>
+          <t>{'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3115,22 +3115,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1496267445634534</v>
+        <v>0.3583252190847128</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1629464285714286</v>
+        <v>0.3565945511506224</v>
       </c>
       <c r="H79" t="n">
-        <v>6.58049761819912e-18</v>
+        <v>4.229684334455181e-55</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RULE303</t>
+          <t>RULE294</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000'}</t>
+          <t>{'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.02012333657903278</v>
+        <v>0.3612463485881207</v>
       </c>
       <c r="F80" t="n">
-        <v>0.96875</v>
+        <v>0.8381024096385542</v>
       </c>
       <c r="G80" t="n">
-        <v>0.28125</v>
+        <v>0.3780404901339102</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0002751871288793773</v>
+        <v>2.088290657011618e-61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RULE304</t>
+          <t>RULE295</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'wage per hour': 'More than 1000'}</t>
+          <t>{'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.007789678675754625</v>
+        <v>0.1028886725089257</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9694189602446484</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3865546218487395</v>
+        <v>0.6368773925486864</v>
       </c>
       <c r="H81" t="n">
-        <v>0.00368836894921248</v>
+        <v>6.366133528458498e-38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RULE305</t>
+          <t>RULE297</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.05258033106134372</v>
+        <v>0.1467056150600455</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9418604651162791</v>
+        <v>0.9804772234273319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3260709914320685</v>
+        <v>0.1255665091416176</v>
       </c>
       <c r="H82" t="n">
-        <v>1.622989066390394e-10</v>
+        <v>3.802897715981391e-11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RULE306</t>
+          <t>RULE302</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '&gt;=26'}</t>
+          <t>{'wage per hour': 'More than 1000'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3251,22 +3251,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.1778643297630639</v>
+        <v>0.008114248620577734</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9909584086799277</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04159132007233279</v>
+        <v>0.4369747899159664</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0001625304305236682</v>
+        <v>0.0009761394229750605</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RULE309</t>
+          <t>RULE303</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'weeks worked in year': '27-51'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.0691333982473223</v>
+        <v>0.0519311911716975</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8042105263157895</v>
+        <v>0.3197062423500612</v>
       </c>
       <c r="H84" t="n">
-        <v>2.369425412653595e-20</v>
+        <v>7.268207706434968e-10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RULE311</t>
+          <t>RULE304</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'education': 'High School Degree'}</t>
+          <t>{'weeks worked in year': '&gt;=26'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3319,22 +3319,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.09607270366764038</v>
+        <v>0.1778643297630639</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.9909584086799277</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1677018633540373</v>
+        <v>0.04159132007233279</v>
       </c>
       <c r="H85" t="n">
-        <v>1.880140710342194e-12</v>
+        <v>0.0001625304305236682</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RULE315</t>
+          <t>RULE306</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.01493021746186303</v>
+        <v>0.07140538786108407</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="G86" t="n">
-        <v>0.372662798194713</v>
+        <v>0.8082456140350878</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0002504710572728252</v>
+        <v>8.28412347843996e-24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RULE316</t>
+          <t>RULE308</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'wage per hour': 'More than 1000'}</t>
+          <t>{'age': '26-60', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3387,22 +3387,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.007140538786108407</v>
+        <v>0.09315157416423239</v>
       </c>
       <c r="F87" t="n">
-        <v>0.88</v>
+        <v>0.9695945945945946</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4373770491803279</v>
+        <v>0.1217685076380729</v>
       </c>
       <c r="H87" t="n">
-        <v>0.002099753689490538</v>
+        <v>7.850278344019272e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RULE317</t>
+          <t>RULE313</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'weeks worked in year': '27-51'}</t>
+          <t>{'age': '26-60', 'wage per hour': 'More than 1000'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.03992210321324245</v>
+        <v>0.007140538786108407</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9389312977099237</v>
+        <v>0.88</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3866924917397744</v>
+        <v>0.4537704918032787</v>
       </c>
       <c r="H88" t="n">
-        <v>1.764769720216885e-09</v>
+        <v>0.001608968848268348</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RULE319</t>
+          <t>RULE314</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '27-51', 'age': '26-60'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.0866601752677702</v>
+        <v>0.03927296332359623</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9744525547445255</v>
+        <v>0.9236641221374046</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3105181285150174</v>
+        <v>0.356499943032927</v>
       </c>
       <c r="H89" t="n">
-        <v>1.389234184078673e-16</v>
+        <v>2.450001034307724e-08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RULE320</t>
+          <t>RULE316</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
+          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3489,22 +3489,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.08925673482635509</v>
+        <v>0.08698474521259332</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9781021897810219</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3311036789297659</v>
+        <v>0.3018726815843006</v>
       </c>
       <c r="H90" t="n">
-        <v>1.48683937752055e-17</v>
+        <v>1.766799902249325e-16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RULE321</t>
+          <t>RULE317</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'education': 'College or Associate'}</t>
+          <t>{'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3523,22 +3523,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.01298279779292437</v>
+        <v>0.0899058747160013</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9685314685314685</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2986536107711139</v>
+        <v>0.3344734975169757</v>
       </c>
       <c r="H91" t="n">
-        <v>0.002335358975344381</v>
+        <v>2.543146123317236e-18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RULE323</t>
+          <t>RULE318</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'education': 'High School Degree'}</t>
+          <t>{'education': 'College or Associate', 'age': 'Older than 60'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3557,22 +3557,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.03959753326841935</v>
+        <v>0.01363193768257059</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.4504283965728274</v>
       </c>
       <c r="H92" t="n">
-        <v>3.571364652283036e-07</v>
+        <v>2.709293669044392e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RULE326</t>
+          <t>RULE320</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'age': 'Older than 60'}</t>
+          <t>{'age': 'Older than 60', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3591,22 +3591,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.008114248620577734</v>
+        <v>0.03959753326841935</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5654761904761905</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0005179858088708597</v>
+        <v>5.054359071754026e-06</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RULE327</t>
+          <t>RULE323</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60'}</t>
+          <t>{'education': 'University Degree', 'age': 'Older than 60'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3625,22 +3625,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.08828302499188576</v>
+        <v>0.008114248620577734</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3439716312056738</v>
+        <v>0.5297619047619049</v>
       </c>
       <c r="H94" t="n">
-        <v>2.059869750886476e-18</v>
+        <v>0.0007481304864923819</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RULE328</t>
+          <t>RULE324</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'age': 'Older than 60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.07789678675754626</v>
+        <v>0.08893216488153197</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07744982290436841</v>
+        <v>0.3439716312056738</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0001243412804804769</v>
+        <v>5.037403821068649e-19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RULE339</t>
+          <t>RULE325</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'capital gain': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'age': 'Older than 60'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.3554040895813048</v>
+        <v>0.07822135670236936</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8548009367681498</v>
+        <v>0.9958677685950413</v>
       </c>
       <c r="G96" t="n">
-        <v>0.339583545463802</v>
+        <v>0.07015348288075562</v>
       </c>
       <c r="H96" t="n">
-        <v>1.65766962935085e-51</v>
+        <v>0.0001263927302096665</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RULE341</t>
+          <t>RULE335</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.09996754300551769</v>
+        <v>0.3550795196364817</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9716088328075709</v>
+        <v>0.8540202966432474</v>
       </c>
       <c r="G97" t="n">
-        <v>0.625662886861625</v>
+        <v>0.3366289922954213</v>
       </c>
       <c r="H97" t="n">
-        <v>4.5591788175358e-35</v>
+        <v>8.189460044831048e-51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RULE343</t>
+          <t>RULE336</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'College or Associate', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3761,22 +3761,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.1447581953911068</v>
+        <v>0.1022395326192795</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0.9936908517350158</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08499999999999996</v>
+        <v>0.6315286895728536</v>
       </c>
       <c r="H98" t="n">
-        <v>8.450171332797419e-10</v>
+        <v>6.784065989072116e-38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RULE347</t>
+          <t>RULE338</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'capital gain': '&lt;=500'}</t>
+          <t>{'education': 'High School Degree', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3795,22 +3795,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.01947419668938656</v>
+        <v>0.1431353456669912</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9887892376681614</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2563338301043219</v>
+        <v>0.07878923766816137</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0003774295210117624</v>
+        <v>2.206169650750349e-07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RULE348</t>
+          <t>RULE343</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3829,22 +3829,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.3304122038299254</v>
+        <v>0.3307367737747485</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8316993464052288</v>
+        <v>0.8325163398692811</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3584721394587744</v>
+        <v>0.360736310925721</v>
       </c>
       <c r="H100" t="n">
-        <v>2.553236338481277e-50</v>
+        <v>7.727382390405636e-51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RULE349</t>
+          <t>RULE344</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'wage per hour': 'More than 1000'}</t>
+          <t>{'wage per hour': 'More than 1000', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3863,22 +3863,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.007789678675754625</v>
+        <v>0.008114248620577734</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3642987249544626</v>
+        <v>0.4177292046144505</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005039219134115248</v>
+        <v>0.001235880503132422</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RULE350</t>
+          <t>RULE345</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'weeks worked in year': '27-51'}</t>
+          <t>{'weeks worked in year': '27-51', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.05160662122687439</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9695121951219512</v>
+        <v>0.9634146341463414</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3028455284552846</v>
+        <v>0.3318356867779204</v>
       </c>
       <c r="H102" t="n">
-        <v>2.095621885230062e-10</v>
+        <v>4.96207480317731e-11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RULE351</t>
+          <t>RULE347</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'education': 'College or Associate', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3931,22 +3931,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.174943200259656</v>
+        <v>0.1002921129503408</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9981481481481481</v>
+        <v>0.9747634069400631</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03581938102486049</v>
+        <v>0.6303756518380224</v>
       </c>
       <c r="H103" t="n">
-        <v>4.44488650255904e-05</v>
+        <v>1.452126528120588e-36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RULE352</t>
+          <t>RULE349</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'High School Degree', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3965,22 +3965,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.004868549172346641</v>
+        <v>0.1463810451152223</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0.9912087912087912</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8125</v>
+        <v>0.09003232062055599</v>
       </c>
       <c r="H104" t="n">
-        <v>7.243502282405412e-05</v>
+        <v>5.837372894451632e-09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RULE355</t>
+          <t>RULE354</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3999,22 +3999,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.09996754300551769</v>
+        <v>0.3343070431678027</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9716088328075709</v>
+        <v>0.8306451612903226</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6246700572973669</v>
+        <v>0.3835393728671689</v>
       </c>
       <c r="H105" t="n">
-        <v>4.447461963911204e-36</v>
+        <v>3.41142749966282e-57</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RULE357</t>
+          <t>RULE355</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'wage per hour': 'More than 1000', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4033,22 +4033,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1476793248945148</v>
+        <v>0.007465108730931516</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1223529411764706</v>
+        <v>0.45125</v>
       </c>
       <c r="H106" t="n">
-        <v>1.094948770210391e-13</v>
+        <v>0.000908425253672771</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RULE361</t>
+          <t>RULE356</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'capital loss': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '27-51', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.02012333657903278</v>
+        <v>0.0519311911716975</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2966269841269841</v>
+        <v>0.2970137207425343</v>
       </c>
       <c r="H107" t="n">
-        <v>8.882532174715473e-05</v>
+        <v>1.13568467364957e-09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RULE362</t>
+          <t>RULE357</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4101,22 +4101,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.3339824732229795</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8298387096774194</v>
+        <v>0.9927272727272727</v>
       </c>
       <c r="G108" t="n">
-        <v>0.383398257248943</v>
+        <v>0.03803471609296849</v>
       </c>
       <c r="H108" t="n">
-        <v>4.850845087153002e-57</v>
+        <v>0.0002379197400721255</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RULE363</t>
+          <t>RULE360</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'wage per hour': 'More than 1000'}</t>
+          <t>{'education': 'College or Associate', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4135,22 +4135,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.007465108730931516</v>
+        <v>0.0934761441090555</v>
       </c>
       <c r="F109" t="n">
-        <v>0.92</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G109" t="n">
-        <v>0.435625</v>
+        <v>0.662405303030303</v>
       </c>
       <c r="H109" t="n">
-        <v>0.001192960440352304</v>
+        <v>4.787793070814676e-35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RULE364</t>
+          <t>RULE362</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4169,22 +4169,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.05225576111652061</v>
+        <v>0.05615060045439792</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9611111111111111</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3086158192090396</v>
+        <v>0.8471045964531307</v>
       </c>
       <c r="H110" t="n">
-        <v>2.628364614990794e-10</v>
+        <v>2.472008081204739e-20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RULE365</t>
+          <t>RULE367</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'wage per hour': '&lt;500', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4203,16 +4203,16 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.1772151898734177</v>
+        <v>0.1363193768257059</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9927272727272727</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02832597822889082</v>
+        <v>0.1349713216450392</v>
       </c>
       <c r="H111" t="n">
-        <v>0.00267702389037913</v>
+        <v>1.409697897407666e-11</v>
       </c>
     </row>
     <row r="112">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'education': 'College or Associate'}</t>
+          <t>{'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4237,22 +4237,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.09185329438493996</v>
+        <v>0.06037000973709834</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9528619528619529</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6351536195286196</v>
+        <v>0.1810379607555475</v>
       </c>
       <c r="H112" t="n">
-        <v>6.887503170375681e-33</v>
+        <v>4.923818413551916e-08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RULE371</t>
+          <t>RULE379</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'education': 'College or Associate'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4271,22 +4271,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.05322947095098994</v>
+        <v>0.01460564751703992</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8166485703944987</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="H113" t="n">
-        <v>1.150878078494164e-16</v>
+        <v>0.0008740872112984741</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RULE376</t>
+          <t>RULE383</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'education': 'High School Degree'}</t>
+          <t>{'weeks worked in year': '27-51', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4305,22 +4305,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.1385913664394677</v>
+        <v>0.04608893216488153</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0.9220779220779221</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1662531017369727</v>
+        <v>0.3244447859832474</v>
       </c>
       <c r="H114" t="n">
-        <v>5.814804922874746e-17</v>
+        <v>7.728848087107173e-09</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RULE377</t>
+          <t>RULE384</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{'education': 'High School Degree', 'weeks worked in year': '27-51'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4339,22 +4339,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.01817591691009413</v>
+        <v>0.1755923401493022</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0.9926605504587156</v>
       </c>
       <c r="G115" t="n">
-        <v>0.15</v>
+        <v>0.04494813215806204</v>
       </c>
       <c r="H115" t="n">
-        <v>0.003769514910948022</v>
+        <v>4.565344599563118e-05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RULE378</t>
+          <t>RULE385</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
+          <t>{'wage per hour': 'More than 1000', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4373,22 +4373,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.06166828951639079</v>
+        <v>0.006815968841285297</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2229965156794426</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H116" t="n">
-        <v>3.429786063914813e-11</v>
+        <v>0.001987868096422111</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RULE388</t>
+          <t>RULE386</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'weeks worked in year': '27-51'}</t>
+          <t>{'age': '26-60', 'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4407,22 +4407,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.01493021746186303</v>
+        <v>0.07140538786108407</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.995475113122172</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.8230613200187237</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0003008509472946698</v>
+        <v>4.906209140807081e-24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RULE391</t>
+          <t>RULE388</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'weeks worked in year': '=52'}</t>
+          <t>{'age': '26-60', 'education': 'High School Degree', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4441,16 +4441,16 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.01298279779292437</v>
+        <v>0.09152872444011685</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9825783972125436</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4006568144499179</v>
+        <v>0.05574912891986061</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0009063762771472137</v>
+        <v>0.001709655349613625</v>
       </c>
     </row>
     <row r="119">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'weeks worked in year': '27-51'}</t>
+          <t>{'wage per hour': '500-1000', 'age': '26-60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4475,16 +4475,16 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.04673807205452775</v>
+        <v>0.01493021746186303</v>
       </c>
       <c r="F119" t="n">
-        <v>0.935064935064935</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3374317989702604</v>
+        <v>0.1875</v>
       </c>
       <c r="H119" t="n">
-        <v>1.243037559601515e-09</v>
+        <v>0.004132980629206431</v>
       </c>
     </row>
     <row r="120">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'age': '26-60', 'wage per hour': 'More than 1000', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4509,16 +4509,16 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.1752677702044791</v>
+        <v>0.007140538786108407</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9908256880733946</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04311326977274099</v>
+        <v>0.4439393939393939</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0001349567511875897</v>
+        <v>0.001697957863666549</v>
       </c>
     </row>
     <row r="121">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'wage per hour': 'More than 1000'}</t>
+          <t>{'weeks worked in year': '27-51', 'age': '26-60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.006491398896462187</v>
+        <v>0.03927296332359623</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.968</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4226190476190477</v>
+        <v>0.3954193548387096</v>
       </c>
       <c r="H121" t="n">
-        <v>0.005565251313231468</v>
+        <v>3.061173137722598e-10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RULE396</t>
+          <t>RULE395</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'education': 'College or Associate', 'capital gain': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'age': '26-60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4577,22 +4577,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.0691333982473223</v>
+        <v>0.083089905874716</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9638009049773756</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8182070352455748</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="H122" t="n">
-        <v>1.396224448604542e-20</v>
+        <v>0.004558371253305836</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RULE398</t>
+          <t>RULE399</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'education': 'High School Degree', 'capital gain': '&lt;=500'}</t>
+          <t>{'age': '26-60', 'education': 'College or Associate', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.09315157416423239</v>
+        <v>0.0691333982473223</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0.9681818181818181</v>
       </c>
       <c r="G123" t="n">
-        <v>0.07317073170731703</v>
+        <v>0.8015151515151515</v>
       </c>
       <c r="H123" t="n">
-        <v>4.666009124633328e-06</v>
+        <v>5.653430722157328e-23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RULE402</t>
+          <t>RULE401</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'age': '26-60', 'capital gain': '&lt;=500'}</t>
+          <t>{'age': '26-60', 'education': 'High School Degree', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4645,22 +4645,22 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.01460564751703992</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9862068965517241</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3532608695652174</v>
+        <v>0.07923015236567765</v>
       </c>
       <c r="H124" t="n">
-        <v>0.000420027420455403</v>
+        <v>3.508553718640416e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RULE403</t>
+          <t>RULE406</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'wage per hour': 'More than 1000', 'capital gain': '&lt;=500'}</t>
+          <t>{'age': '26-60', 'wage per hour': 'More than 1000', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.007140538786108407</v>
+        <v>0.006815968841285297</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4257575757575757</v>
+        <v>0.464767616191904</v>
       </c>
       <c r="H125" t="n">
-        <v>0.002255107604219968</v>
+        <v>0.001328208314518323</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RULE404</t>
+          <t>RULE407</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '27-51', 'age': '26-60', 'capital gain': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '27-51', 'age': '26-60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4713,22 +4713,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.03959753326841935</v>
+        <v>0.03927296332359623</v>
       </c>
       <c r="F126" t="n">
-        <v>0.976</v>
+        <v>0.9453125</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3792258064516129</v>
+        <v>0.317213326446281</v>
       </c>
       <c r="H126" t="n">
-        <v>3.219879452275284e-10</v>
+        <v>9.718809887917182e-08</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RULE409</t>
+          <t>RULE410</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'age': '26-60', 'wage per hour': '&lt;500', 'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4747,22 +4747,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.0691333982473223</v>
+        <v>0.06523855890944498</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9681818181818181</v>
+        <v>0.9617224880382775</v>
       </c>
       <c r="G127" t="n">
-        <v>0.8268774703557312</v>
+        <v>0.8335173598331493</v>
       </c>
       <c r="H127" t="n">
-        <v>2.177061630805326e-21</v>
+        <v>8.736903729917865e-20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RULE411</t>
+          <t>RULE412</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': '26-60', 'education': 'High School Degree'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52', 'education': 'College or Associate'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4781,22 +4781,22 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.09412528399870172</v>
+        <v>0.04543979227523531</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1096345514950167</v>
+        <v>0.9356482956355526</v>
       </c>
       <c r="H128" t="n">
-        <v>1.74844519559e-08</v>
+        <v>2.987798845458695e-06</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RULE415</t>
+          <t>RULE417</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'capital loss': '&lt;=500', 'age': '26-60'}</t>
+          <t>{'age': '26-60', 'wage per hour': '&lt;500', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4815,22 +4815,22 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.01493021746186303</v>
+        <v>0.08373904576436222</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.9735849056603774</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.1325955063670912</v>
       </c>
       <c r="H129" t="n">
-        <v>7.285941516764267e-05</v>
+        <v>4.80026131019387e-07</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RULE416</t>
+          <t>RULE419</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': '26-60', 'wage per hour': 'More than 1000'}</t>
+          <t>{'age': '26-60', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4849,22 +4849,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.006815968841285297</v>
+        <v>0.04965920155793573</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9745222929936306</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4475262368815592</v>
+        <v>0.1541141297283245</v>
       </c>
       <c r="H130" t="n">
-        <v>0.001745812421948528</v>
+        <v>9.430153633474967e-06</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RULE417</t>
+          <t>RULE429</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': '26-60', 'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'age': '26-60'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4883,22 +4883,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.03959753326841935</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="F131" t="n">
-        <v>0.953125</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="G131" t="n">
-        <v>0.3580836776859504</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="H131" t="n">
-        <v>6.312083539029494e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RULE421</t>
+          <t>RULE432</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'weeks worked in year': '27-51', 'age': '26-60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4917,22 +4917,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.06361570918532944</v>
+        <v>0.03537812398571892</v>
       </c>
       <c r="F132" t="n">
-        <v>0.937799043062201</v>
+        <v>0.9159663865546218</v>
       </c>
       <c r="G132" t="n">
-        <v>0.8169199221830801</v>
+        <v>0.3742997198879552</v>
       </c>
       <c r="H132" t="n">
-        <v>3.501350960738806e-18</v>
+        <v>7.978438553163117e-08</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RULE423</t>
+          <t>RULE434</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'age': '26-60', 'education': 'College or Associate'}</t>
+          <t>{'age': '26-60', 'wage per hour': 'More than 1000', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4951,22 +4951,22 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.04316780266147355</v>
+        <v>0.006166828951639078</v>
       </c>
       <c r="F133" t="n">
-        <v>0.910958904109589</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G133" t="n">
-        <v>0.910958904109589</v>
+        <v>0.5106951871657754</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.001898971389213979</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RULE428</t>
+          <t>RULE435</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': '26-60', 'education': 'High School Degree'}</t>
+          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.08601103537812399</v>
+        <v>0.0866601752677702</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1731448763250883</v>
+        <v>0.2870348535584587</v>
       </c>
       <c r="H134" t="n">
-        <v>1.339607010537166e-11</v>
+        <v>1.633504581472114e-15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RULE429</t>
+          <t>RULE436</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'education': 'High School Degree', 'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'College or Associate', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5019,22 +5019,22 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.01428107757221681</v>
+        <v>0.01330736773774749</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1875</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
-        <v>0.004107592859192791</v>
+        <v>5.807354799255398e-05</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RULE430</t>
+          <t>RULE438</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
+          <t>{'education': 'High School Degree', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.05095748133722817</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.2083333333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>4.671059057396473e-08</v>
+        <v>1.82847812266626e-06</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RULE443</t>
+          <t>RULE441</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'age': '26-60', 'weeks worked in year': '=52'}</t>
+          <t>{'education': 'University Degree', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5087,22 +5087,22 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.009737098344693282</v>
+        <v>0.007789678675754625</v>
       </c>
       <c r="F137" t="n">
-        <v>0.967741935483871</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4894810659186536</v>
+        <v>0.4875776397515528</v>
       </c>
       <c r="H137" t="n">
-        <v>0.001161732326799382</v>
+        <v>0.001972668163139762</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RULE444</t>
+          <t>RULE442</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': '26-60', 'weeks worked in year': '27-51'}</t>
+          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5121,22 +5121,22 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.03602726387536514</v>
+        <v>0.08568646543330087</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9327731092436975</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4161064425770308</v>
+        <v>0.3000918273645546</v>
       </c>
       <c r="H138" t="n">
-        <v>4.356707018127407e-09</v>
+        <v>3.635294005385785e-16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RULE446</t>
+          <t>RULE444</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{'age': '26-60', 'weeks worked in year': '=52', 'wage per hour': 'More than 1000'}</t>
+          <t>{'education': 'College or Associate', 'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5155,22 +5155,22 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.006166828951639078</v>
+        <v>0.01330736773774749</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5106951871657754</v>
+        <v>0.4576719576719577</v>
       </c>
       <c r="H139" t="n">
-        <v>0.001898971389213979</v>
+        <v>3.294698643219369e-05</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RULE447</t>
+          <t>RULE446</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
+          <t>{'age': 'Older than 60', 'education': 'High School Degree', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5189,22 +5189,22 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.0866601752677702</v>
+        <v>0.03959753326841935</v>
       </c>
       <c r="F140" t="n">
-        <v>0.978021978021978</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.2913266990520209</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="H140" t="n">
-        <v>9.9109672453195e-16</v>
+        <v>1.641224810805172e-05</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RULE448</t>
+          <t>RULE449</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'education': 'University Degree', 'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5223,16 +5223,16 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.01298279779292437</v>
+        <v>0.008114248620577734</v>
       </c>
       <c r="F141" t="n">
-        <v>0.975609756097561</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G141" t="n">
-        <v>0.355609756097561</v>
+        <v>0.550314465408805</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0003321688294599571</v>
+        <v>0.0007457634885309644</v>
       </c>
     </row>
     <row r="142">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'age': 'Older than 60', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.0379746835443038</v>
+        <v>0.08893216488153197</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1805555555555556</v>
+        <v>0.3332548219099212</v>
       </c>
       <c r="H142" t="n">
-        <v>7.897675093082316e-06</v>
+        <v>2.820275826287334e-18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RULE453</t>
+          <t>RULE451</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5291,22 +5291,22 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.008114248620577734</v>
+        <v>0.07822135670236936</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9958677685950413</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5667701863354038</v>
+        <v>0.06095652599149104</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0004972943938546778</v>
+        <v>0.0004046932263191194</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RULE454</t>
+          <t>RULE452</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'capital gain': '&lt;=500'}</t>
+          <t>{'education': 'College or Associate', 'age': 'Older than 60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5325,22 +5325,22 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.08568646543330087</v>
+        <v>0.01298279779292437</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9777777777777777</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0.3124885215794306</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H144" t="n">
-        <v>8.729685366613561e-17</v>
+        <v>1.209103563484269e-05</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RULE455</t>
+          <t>RULE456</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital gain': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'education': 'High School Degree'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5359,22 +5359,22 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.0759493670886076</v>
+        <v>0.03959753326841935</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0641025641025641</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0001203592157120235</v>
+        <v>4.043884178106495e-06</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RULE456</t>
+          <t>RULE462</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital loss': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'education': 'University Degree', 'age': 'Older than 60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5393,22 +5393,22 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.01298279779292437</v>
+        <v>0.007789678675754625</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="G146" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5184952978056426</v>
       </c>
       <c r="H146" t="n">
-        <v>0.00219601235863601</v>
+        <v>0.001067246807004074</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RULE458</t>
+          <t>RULE464</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital loss': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'age': 'Older than 60', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5427,22 +5427,22 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.03959753326841935</v>
+        <v>0.07822135670236936</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0.9958677685950413</v>
       </c>
       <c r="G147" t="n">
-        <v>0.2317073170731707</v>
+        <v>0.07015348288075562</v>
       </c>
       <c r="H147" t="n">
-        <v>2.763268653973346e-07</v>
+        <v>0.0001263927302096665</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RULE461</t>
+          <t>RULE491</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
+          <t>{'education': 'College or Associate', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5461,22 +5461,22 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.008114248620577734</v>
+        <v>0.09964297306069458</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0.550314465408805</v>
+        <v>0.6217008797653959</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0007457634885309644</v>
+        <v>1.462774755947451e-36</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RULE462</t>
+          <t>RULE493</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'capital loss': '&lt;=500'}</t>
+          <t>{'education': 'High School Degree', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5495,22 +5495,22 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.08828302499188576</v>
+        <v>0.1428107757221681</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9645390070921985</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0.3261626233283609</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="H149" t="n">
-        <v>2.662821299110871e-17</v>
+        <v>0.0001005266573900678</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RULE463</t>
+          <t>RULE498</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{'age': 'Older than 60', 'capital loss': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'wage per hour': '&lt;500', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5529,22 +5529,22 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.07789678675754626</v>
+        <v>0.3284647841609867</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.8454469507101086</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05682429458653238</v>
+        <v>0.3403648553230875</v>
       </c>
       <c r="H150" t="n">
-        <v>0.001528375099967649</v>
+        <v>8.044688958200905e-47</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RULE464</t>
+          <t>RULE499</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'education': 'College or Associate'}</t>
+          <t>{'wage per hour': 'More than 1000', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5563,22 +5563,22 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.007465108730931516</v>
       </c>
       <c r="F151" t="n">
-        <v>0.975</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G151" t="n">
-        <v>0.343421052631579</v>
+        <v>0.4320175438596492</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0003878554331477315</v>
+        <v>0.001046933271086892</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RULE468</t>
+          <t>RULE500</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'education': 'High School Degree'}</t>
+          <t>{'weeks worked in year': '27-51', 'capital gain': '&lt;=500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5597,22 +5597,22 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.03959753326841935</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.3039556962025317</v>
       </c>
       <c r="H152" t="n">
-        <v>5.322940306672256e-07</v>
+        <v>4.624305749832827e-11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RULE474</t>
+          <t>RULE504</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'age': 'Older than 60'}</t>
+          <t>{'education': 'College or Associate', 'wage per hour': '&lt;500', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5631,22 +5631,22 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.007789678675754625</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.9930555555555556</v>
       </c>
       <c r="G153" t="n">
-        <v>0.554858934169279</v>
+        <v>0.6567460317460317</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0007243339161755437</v>
+        <v>8.052844583182939e-35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RULE476</t>
+          <t>RULE506</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'age': 'Older than 60', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5665,22 +5665,22 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.07789678675754626</v>
+        <v>0.05550146056475171</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9917355371900827</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07744982290436841</v>
+        <v>0.8689138576779026</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0001243412804804769</v>
+        <v>6.37288936129236e-21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RULE504</t>
+          <t>RULE511</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'education': 'High School Degree', 'wage per hour': '&lt;500', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5699,22 +5699,22 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.09964297306069458</v>
+        <v>0.1330736773774749</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6304985337243402</v>
+        <v>0.0850456851425726</v>
       </c>
       <c r="H155" t="n">
-        <v>1.032651547497708e-36</v>
+        <v>1.180648294032554e-07</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RULE506</t>
+          <t>RULE513</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'capital gain': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'High School Degree', 'weeks worked in year': '=52', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5733,22 +5733,22 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1428107757221681</v>
+        <v>0.05842259006815969</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="G156" t="n">
-        <v>0.03448275862068961</v>
+        <v>0.0937987181707951</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0001005266573900678</v>
+        <v>0.0004124904679494594</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RULE510</t>
+          <t>RULE523</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'capital loss': '&lt;=500', 'capital gain': '&lt;=500'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5767,22 +5767,22 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.01947419668938656</v>
+        <v>0.01460564751703992</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.8288043478260869</v>
       </c>
       <c r="H157" t="n">
-        <v>9.630168492144425e-05</v>
+        <v>0.0004258803830971449</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RULE511</t>
+          <t>RULE527</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500', 'capital gain': '&lt;=500'}</t>
+          <t>{'weeks worked in year': '27-51', 'wage per hour': '&lt;500', 'capital gain': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5801,22 +5801,22 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.3284647841609867</v>
+        <v>0.04543979227523531</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8454469507101086</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="G158" t="n">
-        <v>0.3388011336655425</v>
+        <v>0.3485144991994307</v>
       </c>
       <c r="H158" t="n">
-        <v>1.508931859523909e-46</v>
+        <v>2.802727867013442e-10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RULE512</t>
+          <t>RULE529</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'capital gain': '&lt;=500', 'wage per hour': 'More than 1000'}</t>
+          <t>{'wage per hour': 'More than 1000', 'capital gain': '&lt;=500', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5835,22 +5835,22 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.007465108730931516</v>
+        <v>0.006815968841285297</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4144736842105263</v>
+        <v>0.4620630861040068</v>
       </c>
       <c r="H159" t="n">
-        <v>0.001399012839020737</v>
+        <v>0.001820067707115287</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RULE513</t>
+          <t>RULE531</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'capital gain': '&lt;=500', 'weeks worked in year': '27-51'}</t>
+          <t>{'education': 'College or Associate', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5869,22 +5869,22 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09185329438493996</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9875</v>
+        <v>0.9758620689655172</v>
       </c>
       <c r="G160" t="n">
-        <v>0.2786392405063292</v>
+        <v>0.6556373498643936</v>
       </c>
       <c r="H160" t="n">
-        <v>2.953691996137044e-10</v>
+        <v>6.194605019803082e-34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RULE514</t>
+          <t>RULE533</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{'capital loss': '&lt;=500', 'capital gain': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5903,22 +5903,22 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.1742940603700097</v>
+        <v>0.05355404089581305</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0.9593023255813954</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02105263157894732</v>
+        <v>0.8422810489856507</v>
       </c>
       <c r="H161" t="n">
-        <v>0.000804592056778237</v>
+        <v>5.247862781695173e-19</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RULE518</t>
+          <t>RULE534</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'education': 'College or Associate', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5937,22 +5937,22 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.09152872444011685</v>
+        <v>0.03245699448231094</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.07246376811594202</v>
       </c>
       <c r="H162" t="n">
-        <v>4.536523974200115e-33</v>
+        <v>0.00754942838530376</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RULE520</t>
+          <t>RULE538</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{'weeks worked in year': '=52', 'capital gain': '&lt;=500', 'education': 'College or Associate'}</t>
+          <t>{'wage per hour': '&lt;500', 'education': 'High School Degree', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.05290490100616683</v>
+        <v>0.1359948068808828</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9532163742690059</v>
+        <v>0.9928909952606635</v>
       </c>
       <c r="G163" t="n">
-        <v>0.844602142059268</v>
+        <v>0.09760303714548024</v>
       </c>
       <c r="H163" t="n">
-        <v>3.014922993848139e-17</v>
+        <v>2.636094861433509e-09</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RULE525</t>
+          <t>RULE540</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital gain': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'weeks worked in year': '=52', 'education': 'High School Degree', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6005,22 +6005,22 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.1343719571567673</v>
+        <v>0.06037000973709834</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08913649025069637</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="H164" t="n">
-        <v>1.466031200037607e-09</v>
+        <v>5.480365336297416e-08</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RULE527</t>
+          <t>RULE550</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6039,22 +6039,22 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.05972086984745213</v>
+        <v>0.01460564751703992</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1155378486055777</v>
+        <v>0.8119843682153712</v>
       </c>
       <c r="H165" t="n">
-        <v>3.385260812893668e-06</v>
+        <v>0.000564853925046658</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RULE537</t>
+          <t>RULE554</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{'education': 'University Degree', 'capital gain': '&lt;=500', 'weeks worked in year': '27-51'}</t>
+          <t>{'weeks worked in year': '27-51', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6073,22 +6073,22 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.01493021746186303</v>
+        <v>0.04608893216488153</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="G166" t="n">
-        <v>0.8278985507246377</v>
+        <v>0.2992307692307692</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0001248166841422758</v>
+        <v>1.305572192593554e-08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RULE540</t>
+          <t>RULE555</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{'wage per hour': '500-1000', 'capital gain': '&lt;=500', 'weeks worked in year': '=52'}</t>
+          <t>{'weeks worked in year': '&gt;=26', 'wage per hour': '&lt;500', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6107,22 +6107,22 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.174943200259656</v>
       </c>
       <c r="F167" t="n">
-        <v>0.975</v>
+        <v>0.9944649446494465</v>
       </c>
       <c r="G167" t="n">
-        <v>0.3824074074074074</v>
+        <v>0.04128768712436282</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0007815924038891809</v>
+        <v>6.182619665777362e-05</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RULE541</t>
+          <t>RULE556</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital gain': '&lt;=500', 'weeks worked in year': '27-51'}</t>
+          <t>{'weeks worked in year': '=52', 'wage per hour': 'More than 1000', 'capital loss': '&lt;=500'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6141,22 +6141,22 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.04576436222005843</v>
+        <v>0.006166828951639078</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9657534246575342</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G168" t="n">
-        <v>0.3228962818003913</v>
+        <v>0.4816849816849817</v>
       </c>
       <c r="H168" t="n">
-        <v>7.443206796991978e-10</v>
+        <v>0.001937372924755822</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RULE542</t>
+          <t>RULE560</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{'wage per hour': '&lt;500', 'capital gain': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
+          <t>{'education': 'College or Associate', 'weeks worked in year': '=52', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6175,22 +6175,22 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.1726712106458942</v>
+        <v>0.04803635183382019</v>
       </c>
       <c r="F169" t="n">
-        <v>0.99812382739212</v>
+        <v>0.961038961038961</v>
       </c>
       <c r="G169" t="n">
-        <v>0.03713091959070158</v>
+        <v>0.882185914443979</v>
       </c>
       <c r="H169" t="n">
-        <v>3.616011510798213e-05</v>
+        <v>2.655345905646124e-15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RULE543</t>
+          <t>RULE565</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{'capital gain': '&lt;=500', 'weeks worked in year': '=52', 'wage per hour': 'More than 1000'}</t>
+          <t>{'wage per hour': '&lt;500', 'education': 'High School Degree', 'weeks worked in year': '=52'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6209,22 +6209,22 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.006491398896462187</v>
+        <v>0.05322947095098994</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9820359281437125</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4185848252344416</v>
+        <v>0.1946343533405629</v>
       </c>
       <c r="H170" t="n">
-        <v>0.005522142159448231</v>
+        <v>6.661345276752024e-08</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RULE544</t>
+          <t>RULE572</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{'capital gain': '&gt;500', 'capital loss': '&lt;=500', 'education': 'High School Degree'}</t>
+          <t>{'education': 'University Degree', 'weeks worked in year': '27-51', 'wage per hour': '&lt;500'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6243,458 +6243,16 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.004868549172346641</v>
+        <v>0.01298279779292437</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G171" t="n">
-        <v>0.8125</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="H171" t="n">
-        <v>7.243502282405412e-05</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>RULE550</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500', 'education': 'College or Associate'}</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>0.09152872444011685</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.9724137931034482</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.63252615265401</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2.967382553289573e-33</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>RULE552</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>{'weeks worked in year': '=52', 'capital loss': '&lt;=500', 'education': 'College or Associate'}</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>0.05322947095098994</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.9534883720930233</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.8577436912419595</v>
-      </c>
-      <c r="H173" t="n">
-        <v>5.972330999297123e-17</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>RULE557</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500', 'education': 'High School Degree'}</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>0.1369685167153522</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.1256544502617801</v>
-      </c>
-      <c r="H174" t="n">
-        <v>4.441622647279057e-13</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>RULE559</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>{'capital loss': '&lt;=500', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>0.06037000973709834</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.1771217712177122</v>
-      </c>
-      <c r="H175" t="n">
-        <v>5.965424684853514e-09</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>RULE569</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>{'education': 'University Degree', 'capital loss': '&lt;=500', 'weeks worked in year': '27-51'}</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>0.01493021746186303</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.9387755102040817</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.8111159357359966</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.0001765439729718879</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>RULE572</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '500-1000', 'capital loss': '&lt;=500', 'weeks worked in year': '=52'}</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>0.01298279779292437</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.975609756097561</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.4238856181665265</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.0003403381191652772</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>RULE573</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500', 'weeks worked in year': '27-51'}</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>0.04641350210970464</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.9533333333333334</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.3187179487179488</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2.048896804948738e-09</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>RULE574</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '&lt;500', 'capital loss': '&lt;=500', 'weeks worked in year': '&gt;=26'}</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>0.1746186303148329</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.992619926199262</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.02940922385812483</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.002340180126198958</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>RULE575</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>{'capital loss': '&lt;=500', 'weeks worked in year': '=52', 'wage per hour': 'More than 1000'}</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>0.006166828951639078</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.4816849816849817</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.001937372924755822</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>RULE579</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>{'weeks worked in year': '=52', 'wage per hour': '&lt;500', 'education': 'College or Associate'}</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>0.04608893216488153</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.9220779220779221</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.84322487548294</v>
-      </c>
-      <c r="H181" t="n">
-        <v>3.27540662767602e-14</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>RULE583</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '&lt;500', 'education': 'High School Degree', 'weeks worked in year': '27-51'}</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>0.01590392729633236</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.003646111607275291</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>RULE584</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>{'wage per hour': '&lt;500', 'weeks worked in year': '=52', 'education': 'High School Degree'}</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>0.05420318078545926</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.2283464566929134</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3.147704295515053e-10</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>RULE591</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>{'sex': 'Female'}</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>{'education': 'University Degree', 'wage per hour': '&lt;500', 'weeks worked in year': '27-51'}</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>{'income': 'low'}</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>0.01330736773774749</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.8043478260869565</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.002127759408124999</v>
+        <v>0.0028119791058025</v>
       </c>
     </row>
   </sheetData>
